--- a/excel-files/data_mentee.xlsx
+++ b/excel-files/data_mentee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TITIPAN\HUDAN\frontmentoring\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478CBB7F-BF3C-4398-A223-3BFF3317B8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C884B-F334-46C7-A636-EB5FACF14A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4F8F42FE-F7B8-40BB-B295-73C23CAD37DE}"/>
   </bookViews>
@@ -52,49 +52,49 @@
     <t>angkatan_id</t>
   </si>
   <si>
-    <t>aditya venusa</t>
-  </si>
-  <si>
-    <t>alysa velia</t>
-  </si>
-  <si>
-    <t>susi maulia</t>
-  </si>
-  <si>
-    <t>rivaldi putra</t>
-  </si>
-  <si>
-    <t>galih pamungkas</t>
-  </si>
-  <si>
-    <t>rijalus shilihin</t>
-  </si>
-  <si>
-    <t>aprilia kurniati</t>
-  </si>
-  <si>
-    <t>safina m</t>
-  </si>
-  <si>
-    <t>robiatul qoria</t>
-  </si>
-  <si>
-    <t>sena adi</t>
-  </si>
-  <si>
-    <t>linda puspita</t>
-  </si>
-  <si>
-    <t>arif mustofa</t>
-  </si>
-  <si>
-    <t>alfiyatur rohma</t>
-  </si>
-  <si>
-    <t>faiz shofi</t>
-  </si>
-  <si>
-    <t>zain m</t>
+    <t>ANGGITA DEA ERICA PUTRI</t>
+  </si>
+  <si>
+    <t>BAGUS NUR FADILLAH</t>
+  </si>
+  <si>
+    <t>BASIS IFTITAKHUS SAHIDAH</t>
+  </si>
+  <si>
+    <t>DEWI SHINTA IMANIA</t>
+  </si>
+  <si>
+    <t>ERINA FELICIA</t>
+  </si>
+  <si>
+    <t>FAIZ IRSYAD RABBANI</t>
+  </si>
+  <si>
+    <t>FITRIAQIELA GISA AGUNG</t>
+  </si>
+  <si>
+    <t>HELEN MAGDALENA HARTONO</t>
+  </si>
+  <si>
+    <t>INTAN APRILIA SAPUTRI</t>
+  </si>
+  <si>
+    <t>IQBAL DANI SAPUTRA</t>
+  </si>
+  <si>
+    <t>JILL AMIN JADID</t>
+  </si>
+  <si>
+    <t>LATHIFAH KHUSNUL KHOTIMAH</t>
+  </si>
+  <si>
+    <t>MAULANA ZAKI FIRDAUS</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FARIZ FERDIANSYAH</t>
+  </si>
+  <si>
+    <t>MUHAMMAD THARIQ ZIYAD</t>
   </si>
 </sst>
 </file>
@@ -449,13 +449,13 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
@@ -479,257 +479,212 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1831710191</v>
+        <v>2231410066</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1831710192</v>
+        <v>2231410008</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1831710193</v>
+        <v>2231410040</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1831710194</v>
+        <v>2231410059</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1831710195</v>
+        <v>2231410022</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1831710196</v>
+        <v>2231410064</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1831710197</v>
+        <v>2231410085</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1831710198</v>
+        <v>2231410065</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1831710199</v>
+        <v>2231410015</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1831710200</v>
+        <v>2231410071</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1831710201</v>
+        <v>2231410044</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1831710202</v>
+        <v>2231410025</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1831710203</v>
+        <v>2231410023</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1831710204</v>
+        <v>2231410108</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1831710205</v>
+        <v>2231410096</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
